--- a/uploads/processed_Test2.xlsx
+++ b/uploads/processed_Test2.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App - Adobe Flash</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>SQL Server</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -9882,7 +9882,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -12780,7 +12780,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -13032,7 +13032,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -14544,7 +14544,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -14796,7 +14796,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -16812,7 +16812,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -16875,7 +16875,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -17064,7 +17064,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -17694,7 +17694,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -17820,7 +17820,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>Oracle Database</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -18387,7 +18387,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -18702,7 +18702,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -19017,7 +19017,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -19647,7 +19647,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - HTTPD</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -21222,7 +21222,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -21411,7 +21411,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -21474,7 +21474,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -21915,7 +21915,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -22041,7 +22041,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -22104,7 +22104,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -22167,7 +22167,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>Oracle Database</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -22608,7 +22608,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -22671,7 +22671,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -22734,7 +22734,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -22986,7 +22986,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -23238,7 +23238,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -23301,7 +23301,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -23364,7 +23364,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -23427,7 +23427,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
@@ -23490,7 +23490,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -23553,7 +23553,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -23616,7 +23616,7 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -24120,7 +24120,7 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
@@ -24309,7 +24309,7 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
@@ -24372,7 +24372,7 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
@@ -24498,7 +24498,7 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
@@ -24750,7 +24750,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -25002,7 +25002,7 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
@@ -25065,7 +25065,7 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -25191,7 +25191,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -25254,7 +25254,7 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -25443,7 +25443,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -25506,7 +25506,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -25632,7 +25632,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
@@ -25758,7 +25758,7 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
@@ -25821,7 +25821,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -25947,7 +25947,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Ghostscript</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -26136,7 +26136,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -26199,7 +26199,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -26325,7 +26325,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -26388,7 +26388,7 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
@@ -26577,7 +26577,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Spring</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
@@ -26640,7 +26640,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
@@ -26703,7 +26703,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
@@ -26892,7 +26892,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -26955,7 +26955,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -27018,7 +27018,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>App - Tomcat</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -27144,7 +27144,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -27270,7 +27270,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -27333,7 +27333,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App -log4j</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -27396,7 +27396,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -27459,7 +27459,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
@@ -27522,7 +27522,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
@@ -27585,7 +27585,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Oracle Java</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
